--- a/SCRUM Files/Burndown Chart.xlsx
+++ b/SCRUM Files/Burndown Chart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Project 2 Group 4</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>implement "pie rule"</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -629,6 +635,292 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-D327-4FF5-85B3-73FA5B31C135}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Sprint 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C0C-4ECD-A652-15F8C2D91DF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Sprint 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7622-4CB9-85B3-3C9456E78343}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1796,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1919,6 +2211,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B6">
@@ -1939,6 +2234,24 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1.25</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="M6">
+        <v>1.75</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B7">
@@ -1959,6 +2272,24 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7">
+        <v>59</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>38</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B8">
@@ -1999,6 +2330,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B10">
@@ -2019,6 +2353,24 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2.25</v>
+      </c>
+      <c r="L10">
+        <v>2.5</v>
+      </c>
+      <c r="M10">
+        <v>2.75</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B11">
@@ -2039,6 +2391,24 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B12">
@@ -2177,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
@@ -2197,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
@@ -2721,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.5">
@@ -2741,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.5">
@@ -2781,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.5">
